--- a/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_1_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.0872384155726104</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.090006409222444</v>
+        <v>0.09000640922244399</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08251336337109101</v>
+        <v>0.08400556169891692</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07229778418129153</v>
+        <v>0.07304412619114138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04878721295789721</v>
+        <v>0.0516567530771338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02487570478252387</v>
+        <v>0.02295917397436927</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1349729506408238</v>
+        <v>0.1347854726753201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1444418241303712</v>
+        <v>0.144737937788957</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07773409344987341</v>
+        <v>0.07547938509141242</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.086694771371565</v>
+        <v>0.08616038931879527</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1154594430863164</v>
+        <v>0.1147731132583947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1155554858996657</v>
+        <v>0.1152450118094109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06967576244719452</v>
+        <v>0.06990080825294265</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0634466434812905</v>
+        <v>0.06212755910706869</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.136502616904406</v>
+        <v>0.1373855103296118</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1311671983082517</v>
+        <v>0.1288380796705969</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1052426997400159</v>
+        <v>0.1043709843856935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1038038799863142</v>
+        <v>0.09432359123439571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.200363991822379</v>
+        <v>0.2030069146406659</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2192322383926503</v>
+        <v>0.2197490928326428</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1361383363463239</v>
+        <v>0.1344680855620853</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1941188925384065</v>
+        <v>0.1887015836651529</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1578038768287464</v>
+        <v>0.1591358620652049</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1619492241233762</v>
+        <v>0.1623248365618876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1086260867514435</v>
+        <v>0.1091595371187793</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1267207483634082</v>
+        <v>0.1217072174472348</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1191781988080999</v>
+        <v>0.1197486405333846</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1124389604279565</v>
+        <v>0.1127120657688826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06947003972773777</v>
+        <v>0.0693161155192068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06746248629726598</v>
+        <v>0.06624043747950897</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1626525105328072</v>
+        <v>0.1631002002667061</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1672921138104536</v>
+        <v>0.1689700324506861</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09530342664072336</v>
+        <v>0.09566237944658917</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08789805047493293</v>
+        <v>0.09271243336347479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1470308818684686</v>
+        <v>0.147651456568737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1471709675780394</v>
+        <v>0.1450701987363179</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08858668944920761</v>
+        <v>0.08820228268403414</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08742646835032736</v>
+        <v>0.08874534282398305</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1704818170859864</v>
+        <v>0.1734564314142941</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1646919908409026</v>
+        <v>0.1669956618157008</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1188802145166726</v>
+        <v>0.1182600090179463</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1395152599368516</v>
+        <v>0.139525110454727</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2260460578859455</v>
+        <v>0.2295645256912575</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2357542303213214</v>
+        <v>0.23363261255869</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1472955069572011</v>
+        <v>0.1476904607330997</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1505401028159952</v>
+        <v>0.1528887384318137</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1866683357518665</v>
+        <v>0.1879448735988875</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1879269042300769</v>
+        <v>0.187542566591258</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1242670303901589</v>
+        <v>0.1235841018872372</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1350613131209193</v>
+        <v>0.136041806105598</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1525946423417808</v>
+        <v>0.1511918150060392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1389440747243767</v>
+        <v>0.1393135828400758</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07322357827154435</v>
+        <v>0.07153006440882359</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08130517775556069</v>
+        <v>0.08192041112070793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.191646716563131</v>
+        <v>0.1915079338417406</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2148683577216539</v>
+        <v>0.2167429374873754</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1009120739477027</v>
+        <v>0.09838104437091966</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1416034089594344</v>
+        <v>0.1399858941359983</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1807435146407421</v>
+        <v>0.1775727546351938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1838573257106699</v>
+        <v>0.1855472321181122</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09110464396652058</v>
+        <v>0.09022691904678236</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1175140489979456</v>
+        <v>0.1174724855520115</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.211625207789078</v>
+        <v>0.2123884571068685</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1993305846355451</v>
+        <v>0.1993243763734234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1192709173967751</v>
+        <v>0.1169779882751022</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1306851860284541</v>
+        <v>0.1334842685307046</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2527787505570634</v>
+        <v>0.2534533020009807</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2828678324001026</v>
+        <v>0.2857071326772494</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1535373543958821</v>
+        <v>0.1473387060545194</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1936100107758126</v>
+        <v>0.1920004221968692</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2263925606361132</v>
+        <v>0.2233763426137108</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2278503751911596</v>
+        <v>0.2302402230678346</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1258291612847552</v>
+        <v>0.125337124738831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1542874835269641</v>
+        <v>0.1544204614447879</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1566008249976817</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1966445259190977</v>
+        <v>0.1966445259190978</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2045477036384307</v>
@@ -1105,7 +1105,7 @@
         <v>0.1505932198294651</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1727964813999115</v>
+        <v>0.1727964813999116</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.148625502468335</v>
+        <v>0.1477367025467706</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1236267838749831</v>
+        <v>0.1219226006058794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.119248267783441</v>
+        <v>0.1171700399869576</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1237142829043453</v>
+        <v>0.1239611932677552</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1934109069171374</v>
+        <v>0.1930686259863471</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2504281527419472</v>
+        <v>0.2500111152545849</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1310378091157789</v>
+        <v>0.1297121067715673</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1748620618269998</v>
+        <v>0.1740087695393057</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1795029666507368</v>
+        <v>0.1801985954044183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1946547475672496</v>
+        <v>0.1995419031576507</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1309061894621454</v>
+        <v>0.1319954270992511</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1550927124962247</v>
+        <v>0.1568143965246553</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2179841225651095</v>
+        <v>0.2191218620716815</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1859599689323296</v>
+        <v>0.1864137388848326</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1755625445977181</v>
+        <v>0.1747576527141853</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1780871341049133</v>
+        <v>0.1787337932831481</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2676944772780668</v>
+        <v>0.2666026901693269</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3266977442289904</v>
+        <v>0.330060490460314</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1851191042862798</v>
+        <v>0.1868593028573957</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2202322832315947</v>
+        <v>0.221160313168517</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2302979501961518</v>
+        <v>0.2321709545931583</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2452426467011252</v>
+        <v>0.2469894461034149</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1727217844529302</v>
+        <v>0.171231563747173</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1917371166470908</v>
+        <v>0.1916700540710162</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1712786008025563</v>
+        <v>0.1739568428693402</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.162296577143351</v>
+        <v>0.1651657036805722</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09306934020736392</v>
+        <v>0.09504986350075045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1506709320362309</v>
+        <v>0.1505164544046487</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2254165028083923</v>
+        <v>0.2250335949143648</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2433402017311955</v>
+        <v>0.2412106622490683</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1788528759025009</v>
+        <v>0.1758455488015939</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2075852438451123</v>
+        <v>0.2067184471576996</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2110357035210095</v>
+        <v>0.2108376685617349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2140538433714493</v>
+        <v>0.2139672666852517</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1462809218924527</v>
+        <v>0.145389814164005</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1872323947808301</v>
+        <v>0.1851516272600411</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2551982796355643</v>
+        <v>0.2536978989232541</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2414023794072382</v>
+        <v>0.2445139467428879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1592659078361944</v>
+        <v>0.1584391190279631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2105468456215034</v>
+        <v>0.2092991999693408</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3105724846857495</v>
+        <v>0.3117892551607013</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3320748610291262</v>
+        <v>0.3382636784714322</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2568214124051856</v>
+        <v>0.2535386004328564</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2586261246832108</v>
+        <v>0.2586989685829652</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2682907245252834</v>
+        <v>0.2755864520409788</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2750757997863479</v>
+        <v>0.2723432436540391</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1957925264967981</v>
+        <v>0.1970857150593834</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2270057086019236</v>
+        <v>0.2244660512941635</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1370818659427824</v>
+        <v>0.1361048060218398</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1187982311298914</v>
+        <v>0.119181386460626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1053492545180543</v>
+        <v>0.1052916948785183</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1251767589812201</v>
+        <v>0.1227761316674168</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2395651835838258</v>
+        <v>0.2342201822979998</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2391962506418372</v>
+        <v>0.2378703593159949</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1739461002702058</v>
+        <v>0.1719685088171621</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1817715246443482</v>
+        <v>0.1797824606518204</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2016470419998032</v>
+        <v>0.2021312655386857</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1955744930864524</v>
+        <v>0.1953307983529179</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1509425354464807</v>
+        <v>0.1506073580396206</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1612273792546806</v>
+        <v>0.1591688177791005</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2234348837022055</v>
+        <v>0.2275351420536667</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2074320268693579</v>
+        <v>0.206162959641772</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1815515459428404</v>
+        <v>0.1814408858121473</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1841226773927676</v>
+        <v>0.1805119007951196</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3288278067940826</v>
+        <v>0.3276758381116416</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3306006615595349</v>
+        <v>0.332332114013186</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2573010528830036</v>
+        <v>0.255886929797523</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2359931418154048</v>
+        <v>0.2368506923939206</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2693524653898853</v>
+        <v>0.2664354951568026</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2622773688210194</v>
+        <v>0.2631946619688088</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2086068626287249</v>
+        <v>0.2114342874180141</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2028279383379951</v>
+        <v>0.2000139204714706</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2427672777809169</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2622164749506499</v>
+        <v>0.2622164749506498</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2024582128501805</v>
+        <v>0.1983623443026074</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1809191463361034</v>
+        <v>0.175792123283845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1424155175087451</v>
+        <v>0.1474833237703411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1733786258485584</v>
+        <v>0.1746289380141696</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2013978104819083</v>
+        <v>0.2066620360474292</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3082526142163602</v>
+        <v>0.3093973118258702</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2288197281941601</v>
+        <v>0.2255883071021204</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2681800722299524</v>
+        <v>0.2668077848106619</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2173466138382964</v>
+        <v>0.2197267444705276</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2687265389100797</v>
+        <v>0.2732867278475405</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2089677358984224</v>
+        <v>0.2078762947545367</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2387843494439394</v>
+        <v>0.2392809535193499</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3166514424677171</v>
+        <v>0.3152954107763725</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2877813112336355</v>
+        <v>0.287345837521765</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2315457654997426</v>
+        <v>0.232471702366012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2484415249182877</v>
+        <v>0.2529508969243119</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3103256922972017</v>
+        <v>0.3094128032647352</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4141508298796366</v>
+        <v>0.4127891890008127</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3305633803798851</v>
+        <v>0.3315350788597057</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3289466174829281</v>
+        <v>0.3313423540991315</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2925676895019583</v>
+        <v>0.2949523204498413</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3460292157916309</v>
+        <v>0.3496176035064044</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2805195448942826</v>
+        <v>0.2843860601743665</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2876589485160529</v>
+        <v>0.2876045523971058</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1571331394633096</v>
+        <v>0.1563629429276997</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1461414882835254</v>
+        <v>0.1457447627683338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.105315346709562</v>
+        <v>0.1062211172855386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1233279506066189</v>
+        <v>0.1221636551430526</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.210384891240275</v>
+        <v>0.2091322624071572</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2437102575836465</v>
+        <v>0.2434655870396273</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1542823295947563</v>
+        <v>0.1543303642903767</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1830116646000415</v>
+        <v>0.184231806500061</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1874173572021005</v>
+        <v>0.1877449710806427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1981024522088322</v>
+        <v>0.199139484007809</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.133491249457183</v>
+        <v>0.1337071787046353</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1574095240172502</v>
+        <v>0.1569161472585161</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1824861217724765</v>
+        <v>0.18335927958011</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1722565762043962</v>
+        <v>0.1707492341819081</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1275592171481791</v>
+        <v>0.1271504581395674</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1464037767005659</v>
+        <v>0.1460348062078742</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2384856621983439</v>
+        <v>0.2383821800776008</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2740916696462549</v>
+        <v>0.2750677255984657</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1799856032469812</v>
+        <v>0.1797888831277621</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2045589053288415</v>
+        <v>0.2061741580643964</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2081368771182676</v>
+        <v>0.2077324527852897</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2191303349972543</v>
+        <v>0.2188135744308203</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1505709002504345</v>
+        <v>0.1508164330367461</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1738022761110998</v>
+        <v>0.1731799728857384</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40767</v>
+        <v>41504</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32834</v>
+        <v>33173</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>20464</v>
+        <v>21668</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10144</v>
+        <v>9363</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>63098</v>
+        <v>63011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>61858</v>
+        <v>61985</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>30764</v>
+        <v>29871</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31428</v>
+        <v>31234</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>111020</v>
+        <v>110360</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>101966</v>
+        <v>101692</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56801</v>
+        <v>56984</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>48873</v>
+        <v>47857</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67441</v>
+        <v>67877</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59569</v>
+        <v>58511</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44145</v>
+        <v>43780</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42330</v>
+        <v>38465</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>93668</v>
+        <v>94903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93888</v>
+        <v>94109</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53877</v>
+        <v>53216</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>70370</v>
+        <v>68407</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>151737</v>
+        <v>153018</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>142904</v>
+        <v>143236</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>88554</v>
+        <v>88989</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>97614</v>
+        <v>93752</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>87654</v>
+        <v>88074</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>77255</v>
+        <v>77443</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41022</v>
+        <v>40931</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>32172</v>
+        <v>31589</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>101738</v>
+        <v>102018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>101913</v>
+        <v>102935</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>53708</v>
+        <v>53910</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44044</v>
+        <v>46457</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>200106</v>
+        <v>200951</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>190774</v>
+        <v>188051</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>102233</v>
+        <v>101789</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>85501</v>
+        <v>86791</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>125388</v>
+        <v>127575</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>113158</v>
+        <v>114741</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>70198</v>
+        <v>69832</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66533</v>
+        <v>66538</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>141390</v>
+        <v>143591</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>143619</v>
+        <v>142327</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83007</v>
+        <v>83230</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>75433</v>
+        <v>76610</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>254052</v>
+        <v>255790</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>243606</v>
+        <v>243107</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>143409</v>
+        <v>142621</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>132086</v>
+        <v>133045</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>97457</v>
+        <v>96561</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>94741</v>
+        <v>94993</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48994</v>
+        <v>47861</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50477</v>
+        <v>50859</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>132187</v>
+        <v>132091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>152320</v>
+        <v>153649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66479</v>
+        <v>64811</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>88097</v>
+        <v>87091</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>240102</v>
+        <v>235890</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>255702</v>
+        <v>258052</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>120976</v>
+        <v>119810</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>146067</v>
+        <v>146015</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>135158</v>
+        <v>135646</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>135916</v>
+        <v>135912</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>79804</v>
+        <v>78270</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>81134</v>
+        <v>82872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>174353</v>
+        <v>174818</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>200525</v>
+        <v>202538</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>101147</v>
+        <v>97064</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>120452</v>
+        <v>119451</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>300743</v>
+        <v>296736</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>316886</v>
+        <v>320210</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>167086</v>
+        <v>166432</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>191776</v>
+        <v>191941</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>77158</v>
+        <v>76697</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75843</v>
+        <v>74798</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>76903</v>
+        <v>75563</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>86676</v>
+        <v>86849</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>99731</v>
+        <v>99554</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>153819</v>
+        <v>153563</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>85054</v>
+        <v>84193</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>128853</v>
+        <v>128225</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>185748</v>
+        <v>186468</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>238980</v>
+        <v>244980</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>169390</v>
+        <v>170799</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>222946</v>
+        <v>225421</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>113166</v>
+        <v>113756</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>114084</v>
+        <v>114362</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>113221</v>
+        <v>112702</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>124771</v>
+        <v>125224</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>138035</v>
+        <v>137472</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>200666</v>
+        <v>202732</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>120157</v>
+        <v>121286</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>162286</v>
+        <v>162970</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>238310</v>
+        <v>240248</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>301087</v>
+        <v>303232</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>223498</v>
+        <v>221570</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>275623</v>
+        <v>275526</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>66235</v>
+        <v>67271</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69695</v>
+        <v>70927</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>44384</v>
+        <v>45329</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>91811</v>
+        <v>91717</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>91065</v>
+        <v>90910</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>108968</v>
+        <v>108014</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>88462</v>
+        <v>86975</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>126389</v>
+        <v>125862</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>166865</v>
+        <v>166709</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>187774</v>
+        <v>187698</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>142112</v>
+        <v>141247</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>228087</v>
+        <v>225552</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>98688</v>
+        <v>98108</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>103665</v>
+        <v>105001</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>75953</v>
+        <v>75558</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>128296</v>
+        <v>127536</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>125467</v>
+        <v>125958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>148703</v>
+        <v>151474</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>127026</v>
+        <v>125403</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>157466</v>
+        <v>157510</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>212136</v>
+        <v>217905</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>241304</v>
+        <v>238907</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>190213</v>
+        <v>191469</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>276539</v>
+        <v>273445</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>40108</v>
+        <v>39822</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>36680</v>
+        <v>36798</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>35221</v>
+        <v>35202</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>50848</v>
+        <v>49873</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>82155</v>
+        <v>80322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>84426</v>
+        <v>83958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>65710</v>
+        <v>64963</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>79725</v>
+        <v>78852</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>128150</v>
+        <v>128458</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>129414</v>
+        <v>129253</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>107485</v>
+        <v>107246</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>136207</v>
+        <v>134467</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>65373</v>
+        <v>66573</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>64046</v>
+        <v>63654</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>60698</v>
+        <v>60661</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>74793</v>
+        <v>73326</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>112766</v>
+        <v>112371</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>116688</v>
+        <v>117299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>97199</v>
+        <v>96664</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>103506</v>
+        <v>103882</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>171178</v>
+        <v>169324</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>173552</v>
+        <v>174159</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>148547</v>
+        <v>150561</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>171351</v>
+        <v>168974</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>42493</v>
+        <v>41633</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>45028</v>
+        <v>43752</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>36601</v>
+        <v>37903</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>53782</v>
+        <v>54170</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>67248</v>
+        <v>69006</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>119904</v>
+        <v>120349</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>91276</v>
+        <v>89987</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>124474</v>
+        <v>123837</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>118191</v>
+        <v>119485</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>171411</v>
+        <v>174320</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>137061</v>
+        <v>136345</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>184901</v>
+        <v>185285</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>66460</v>
+        <v>66175</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>71624</v>
+        <v>71516</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>59507</v>
+        <v>59745</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>77066</v>
+        <v>78465</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>103620</v>
+        <v>103315</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>161096</v>
+        <v>160566</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>131861</v>
+        <v>132249</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>152678</v>
+        <v>153790</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>159096</v>
+        <v>160392</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>220720</v>
+        <v>223009</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>183992</v>
+        <v>186528</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>222746</v>
+        <v>222704</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>514853</v>
+        <v>512330</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>500337</v>
+        <v>498979</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>357249</v>
+        <v>360321</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>435581</v>
+        <v>431469</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>710932</v>
+        <v>706699</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>865247</v>
+        <v>864378</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>545916</v>
+        <v>546086</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>683405</v>
+        <v>687962</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1247401</v>
+        <v>1249582</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1381559</v>
+        <v>1388791</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>925175</v>
+        <v>926672</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1143755</v>
+        <v>1140170</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>597924</v>
+        <v>600785</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>589746</v>
+        <v>584586</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>432704</v>
+        <v>431317</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>517083</v>
+        <v>515780</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>805890</v>
+        <v>805540</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>973110</v>
+        <v>976576</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>636866</v>
+        <v>636169</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>763867</v>
+        <v>769899</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1385305</v>
+        <v>1382613</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1528206</v>
+        <v>1525997</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1043547</v>
+        <v>1045249</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1262867</v>
+        <v>1258345</v>
       </c>
     </row>
     <row r="36">
